--- a/TrafficControl.xlsx
+++ b/TrafficControl.xlsx
@@ -778,7 +778,7 @@
   <dimension ref="A1:CG221"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1236,7 +1236,7 @@
         <v>48</v>
       </c>
       <c r="C20" s="50" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="D20" s="51"/>
       <c r="E20" s="31"/>
@@ -1329,7 +1329,7 @@
         <v>0.1222</v>
       </c>
       <c r="C21" s="54" t="n">
-        <v>1680</v>
+        <v>1714</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
@@ -1422,7 +1422,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="54" t="n">
-        <v>1714</v>
+        <v>1680</v>
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="55"/>

--- a/TrafficControl.xlsx
+++ b/TrafficControl.xlsx
@@ -1236,7 +1236,7 @@
         <v>48</v>
       </c>
       <c r="C20" s="50" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="D20" s="51"/>
       <c r="E20" s="31"/>
